--- a/biology/Botanique/Abdul_Nasser_Al-Gifri/Abdul_Nasser_Al-Gifri.xlsx
+++ b/biology/Botanique/Abdul_Nasser_Al-Gifri/Abdul_Nasser_Al-Gifri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abdul Nasser Al-Gifri, né le 7 mai 1957 dans le gouvernorat d'Abyan[1] est un botaniste yéménite. Il a travaillé de 1998 à 2005 au Zayed Complex for Herbal Research and Traditional Medicine à Abou Dabi[1],[2]. Il est depuis 2006 professeur de taxinomie végétale à l'université d'Aden au Yémen.
-Il est l'auteur de plusieurs taxons végétaux[3], dont Aloe ahmarensis, Aloe irafensis, Euphorbia applanata, Euphorbia seibanica, Leucas hagghierensis, Leucas penduliflora.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul Nasser Al-Gifri, né le 7 mai 1957 dans le gouvernorat d'Abyan est un botaniste yéménite. Il a travaillé de 1998 à 2005 au Zayed Complex for Herbal Research and Traditional Medicine à Abou Dabi,. Il est depuis 2006 professeur de taxinomie végétale à l'université d'Aden au Yémen.
+Il est l'auteur de plusieurs taxons végétaux, dont Aloe ahmarensis, Aloe irafensis, Euphorbia applanata, Euphorbia seibanica, Leucas hagghierensis, Leucas penduliflora.
 Il est un spécialiste de la flore du Yémen.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Matthias Schultz, Bruno Mies et Abdul Nasser Al-Gifri, « New localities of some Paulia species (Lichinaceae, lichenized Ascomycota) from Socotra (Indian Ocean) », The Bryologist, American Bryological and Lichenological Society, vol. 102, no 1,‎ 1999, p. 61-66 (DOI 10.2307/3244461, lire en ligne)
 Mats Thulin, Abdul Nasser Al-Gifri, Mohammed Abdullah Hussein et Saeed Gabali, « Additions to the Yemen flora », dans Biodiversity research in the Horn of Africa region : Proceedings of the Third International Symposium on the Flora of Ethiopia and Eritrea at the Carlsberg Academy, Copenhagen, August 25-27, 1999, Copenhagen, 2001, 439 p. (ISBN 8778762464), p. 137-153
